--- a/tests/Templates/GroupTagTests_NestedGroups.xlsx
+++ b/tests/Templates/GroupTagTests_NestedGroups.xlsx
@@ -92,7 +92,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
